--- a/match of the day.xlsx
+++ b/match of the day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Sunday Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02223A44-B111-499E-A72E-0069A99D4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E976C04-1383-44B5-BF4D-C3EF7F15D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,19 @@
     <t>10:30</t>
   </si>
   <si>
-    <t>Division 4</t>
-  </si>
-  <si>
-    <t>Riverdene Royals</t>
-  </si>
-  <si>
-    <t>North Hants Athletic</t>
-  </si>
-  <si>
-    <t>Sunday 5 Oct</t>
-  </si>
-  <si>
-    <t>Brighton Hill Playing Fields 1</t>
+    <t>Weaty FC</t>
+  </si>
+  <si>
+    <t>Oakridge Nomads</t>
+  </si>
+  <si>
+    <t>Sunday 16 Nov</t>
+  </si>
+  <si>
+    <t>Brighton Hill Playing Fields 2</t>
+  </si>
+  <si>
+    <t>Bernard Cornish Cup</t>
   </si>
 </sst>
 </file>
@@ -393,9 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -407,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -415,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -423,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -439,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -447,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
